--- a/PowerBI_Fundamentals_NL/Klanten.xlsx
+++ b/PowerBI_Fundamentals_NL/Klanten.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas QA\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D81CB-54FF-43E5-8FF1-DAD4A0AE5D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,171 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+  <si>
+    <t>KlantID</t>
+  </si>
+  <si>
+    <t>Stad en land</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>AquaVorm</t>
+  </si>
+  <si>
+    <t>Badkameria</t>
+  </si>
+  <si>
+    <t>PureSanitair</t>
+  </si>
+  <si>
+    <t>VitaBad</t>
+  </si>
+  <si>
+    <t>LuxeLooft</t>
+  </si>
+  <si>
+    <t>Flow &amp; Form Bathrooms</t>
+  </si>
+  <si>
+    <t>ZenBad Studio</t>
+  </si>
+  <si>
+    <t>H2O Interior</t>
+  </si>
+  <si>
+    <t>Sanova Living</t>
+  </si>
+  <si>
+    <t>Badeau</t>
+  </si>
+  <si>
+    <t>Contactpersoon_Titel</t>
+  </si>
+  <si>
+    <t>Contactpersoon_Voornaam</t>
+  </si>
+  <si>
+    <t>Contactpersoon_Achternaam</t>
+  </si>
+  <si>
+    <t>de Vries</t>
+  </si>
+  <si>
+    <t>van Loon</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Sanne</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Verstraete</t>
+  </si>
+  <si>
+    <t>Koen</t>
+  </si>
+  <si>
+    <t>De Smet</t>
+  </si>
+  <si>
+    <t>Annelies</t>
+  </si>
+  <si>
+    <t>Van Acker</t>
+  </si>
+  <si>
+    <t>Bram</t>
+  </si>
+  <si>
+    <t>Smit</t>
+  </si>
+  <si>
+    <t>Rik</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Marieke</t>
+  </si>
+  <si>
+    <t>Dhr.</t>
+  </si>
+  <si>
+    <t>Mevr.</t>
+  </si>
+  <si>
+    <t>UTRECHT, Nederland</t>
+  </si>
+  <si>
+    <t>AMSTERDAM, Nederland</t>
+  </si>
+  <si>
+    <t>MAASTRICHT, Nederland</t>
+  </si>
+  <si>
+    <t>MUNCHEN, Duitsland</t>
+  </si>
+  <si>
+    <t>STUTTGARD, Duitsland</t>
+  </si>
+  <si>
+    <t>GENT, Belgie</t>
+  </si>
+  <si>
+    <t>BRUSSEL, Belgie</t>
+  </si>
+  <si>
+    <t>ANTWERPEN, Belgie</t>
+  </si>
+  <si>
+    <t>EINDHOVEN, Nederland</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +494,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PowerBI_Fundamentals_NL/Klanten.xlsx
+++ b/PowerBI_Fundamentals_NL/Klanten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas QA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quanthicsbv-my.sharepoint.com/personal/thomas_janssen_quanthics_com/Documents/00. QUANTHICS BV/02. Trainingen/00. Training Templates/PowerBI Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D81CB-54FF-43E5-8FF1-DAD4A0AE5D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC10482D81D843505ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34C8968-9A46-4039-9197-8059A2FE1367}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,11 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>KlantID</t>
   </si>
   <si>
+    <t>Contactpersoon</t>
+  </si>
+  <si>
     <t>Stad en land</t>
   </si>
   <si>
@@ -69,106 +72,61 @@
     <t>Badeau</t>
   </si>
   <si>
-    <t>Contactpersoon_Titel</t>
-  </si>
-  <si>
-    <t>Contactpersoon_Voornaam</t>
-  </si>
-  <si>
-    <t>Contactpersoon_Achternaam</t>
-  </si>
-  <si>
-    <t>de Vries</t>
-  </si>
-  <si>
-    <t>van Loon</t>
-  </si>
-  <si>
-    <t>Bakker</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Sanne</t>
-  </si>
-  <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Hoffmann</t>
-  </si>
-  <si>
-    <t>Sabine</t>
-  </si>
-  <si>
-    <t>Verstraete</t>
-  </si>
-  <si>
-    <t>Koen</t>
-  </si>
-  <si>
-    <t>De Smet</t>
-  </si>
-  <si>
-    <t>Annelies</t>
-  </si>
-  <si>
-    <t>Van Acker</t>
-  </si>
-  <si>
-    <t>Bram</t>
-  </si>
-  <si>
-    <t>Smit</t>
-  </si>
-  <si>
-    <t>Rik</t>
-  </si>
-  <si>
-    <t>Bos</t>
-  </si>
-  <si>
-    <t>Marieke</t>
-  </si>
-  <si>
-    <t>Dhr.</t>
-  </si>
-  <si>
-    <t>Mevr.</t>
-  </si>
-  <si>
-    <t>UTRECHT, Nederland</t>
-  </si>
-  <si>
-    <t>AMSTERDAM, Nederland</t>
-  </si>
-  <si>
-    <t>MAASTRICHT, Nederland</t>
-  </si>
-  <si>
-    <t>MUNCHEN, Duitsland</t>
-  </si>
-  <si>
-    <t>STUTTGARD, Duitsland</t>
-  </si>
-  <si>
-    <t>GENT, Belgie</t>
-  </si>
-  <si>
-    <t>BRUSSEL, Belgie</t>
-  </si>
-  <si>
-    <t>ANTWERPEN, Belgie</t>
-  </si>
-  <si>
-    <t>EINDHOVEN, Nederland</t>
+    <t>Mark de Vries</t>
+  </si>
+  <si>
+    <t>Sanne van Loon</t>
+  </si>
+  <si>
+    <t>Jeroen Bakker</t>
+  </si>
+  <si>
+    <t>Rik Smit</t>
+  </si>
+  <si>
+    <t>Marieke Bos</t>
+  </si>
+  <si>
+    <t>Utrecht, Nederland</t>
+  </si>
+  <si>
+    <t>Amsterdam, Nederland</t>
+  </si>
+  <si>
+    <t>Maastricht, Nederland</t>
+  </si>
+  <si>
+    <t>Thomas Müller</t>
+  </si>
+  <si>
+    <t>Sabine Hoffmann</t>
+  </si>
+  <si>
+    <t>Munchen, Duitsland</t>
+  </si>
+  <si>
+    <t>Stuttgard, Duitsland</t>
+  </si>
+  <si>
+    <t>Koen Verstraete</t>
+  </si>
+  <si>
+    <t>Annelies De Smet</t>
+  </si>
+  <si>
+    <t>Bram Van Acker</t>
+  </si>
+  <si>
+    <t>Gent, Belgie</t>
+  </si>
+  <si>
+    <t>Brussel, Belgie</t>
+  </si>
+  <si>
+    <t>Antwerpen, Belgie</t>
+  </si>
+  <si>
+    <t>Eindhoven, Nederland</t>
   </si>
 </sst>
 </file>
@@ -495,238 +453,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
